--- a/SMP Sprint 1 - Defect Log.xlsx
+++ b/SMP Sprint 1 - Defect Log.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wende\OneDrive\Desktop\QA Internship - Group 1\Sprint 1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{287CBAC4-CB1E-42F3-B6BC-0471EA9D6FDC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A3F3257-100D-48C0-A65E-5BF969D14D26}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="12">
   <si>
     <t>Status</t>
   </si>
@@ -50,7 +50,13 @@
     <t>Shaumburg Marketplace Defect Log (Sprint 1)</t>
   </si>
   <si>
-    <t>Date</t>
+    <t>Assigned To</t>
+  </si>
+  <si>
+    <t>Detected By</t>
+  </si>
+  <si>
+    <t>Detected Date</t>
   </si>
 </sst>
 </file>
@@ -294,10 +300,6 @@
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -308,6 +310,10 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -551,12 +557,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="15" x14ac:dyDescent="0.2">
-      <c r="A1" s="12"/>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
-      <c r="E1" s="13"/>
-      <c r="F1" s="13"/>
+      <c r="A1" s="16"/>
+      <c r="B1" s="17"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="17"/>
+      <c r="F1" s="17"/>
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
@@ -777,185 +783,222 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6B017F9-B116-4BAF-9318-235F4F690683}">
-  <dimension ref="A1:G18"/>
+  <dimension ref="A1:I18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="18.85546875" customWidth="1"/>
     <col min="2" max="2" width="21.85546875" customWidth="1"/>
-    <col min="3" max="3" width="12.42578125" customWidth="1"/>
+    <col min="3" max="3" width="14.7109375" customWidth="1"/>
     <col min="4" max="4" width="16.28515625" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" customWidth="1"/>
-    <col min="7" max="7" width="27.5703125" customWidth="1"/>
+    <col min="5" max="7" width="14.7109375" customWidth="1"/>
+    <col min="8" max="8" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="27.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="18" x14ac:dyDescent="0.25">
-      <c r="A1" s="14" t="s">
+    <row r="1" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+      <c r="A1" s="12" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="3" spans="1:7" ht="15" x14ac:dyDescent="0.2">
-      <c r="A3" s="15" t="s">
+    <row r="2" spans="1:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="3" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+      <c r="A3" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="16" t="s">
+      <c r="B3" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="16" t="s">
+      <c r="C3" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="16" t="s">
+      <c r="D3" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="E3" s="16" t="s">
+      <c r="E3" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="F3" s="16" t="s">
+      <c r="F3" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="G3" s="17" t="s">
+      <c r="G3" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="H3" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="I3" s="15" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" s="5"/>
       <c r="B4" s="3"/>
       <c r="C4" s="3"/>
       <c r="D4" s="3"/>
       <c r="E4" s="3"/>
       <c r="F4" s="3"/>
-      <c r="G4" s="6"/>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G4" s="3"/>
+      <c r="H4" s="3"/>
+      <c r="I4" s="6"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" s="5"/>
       <c r="B5" s="3"/>
       <c r="C5" s="3"/>
       <c r="D5" s="3"/>
       <c r="E5" s="3"/>
       <c r="F5" s="3"/>
-      <c r="G5" s="6"/>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G5" s="3"/>
+      <c r="H5" s="3"/>
+      <c r="I5" s="6"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" s="5"/>
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
       <c r="D6" s="3"/>
       <c r="E6" s="3"/>
       <c r="F6" s="3"/>
-      <c r="G6" s="6"/>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G6" s="3"/>
+      <c r="H6" s="3"/>
+      <c r="I6" s="6"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" s="5"/>
       <c r="B7" s="3"/>
       <c r="C7" s="3"/>
       <c r="D7" s="3"/>
       <c r="E7" s="3"/>
       <c r="F7" s="3"/>
-      <c r="G7" s="6"/>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G7" s="3"/>
+      <c r="H7" s="3"/>
+      <c r="I7" s="6"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" s="5"/>
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
       <c r="D8" s="3"/>
       <c r="E8" s="3"/>
       <c r="F8" s="3"/>
-      <c r="G8" s="6"/>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G8" s="3"/>
+      <c r="H8" s="3"/>
+      <c r="I8" s="6"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" s="5"/>
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
       <c r="D9" s="3"/>
       <c r="E9" s="3"/>
       <c r="F9" s="3"/>
-      <c r="G9" s="6"/>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G9" s="3"/>
+      <c r="H9" s="3"/>
+      <c r="I9" s="6"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10" s="5"/>
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>
       <c r="E10" s="3"/>
       <c r="F10" s="3"/>
-      <c r="G10" s="6"/>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G10" s="3"/>
+      <c r="H10" s="3"/>
+      <c r="I10" s="6"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11" s="5"/>
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
       <c r="D11" s="3"/>
       <c r="E11" s="3"/>
       <c r="F11" s="3"/>
-      <c r="G11" s="6"/>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G11" s="3"/>
+      <c r="H11" s="3"/>
+      <c r="I11" s="6"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12" s="5"/>
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
       <c r="D12" s="3"/>
       <c r="E12" s="3"/>
       <c r="F12" s="3"/>
-      <c r="G12" s="6"/>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G12" s="3"/>
+      <c r="H12" s="3"/>
+      <c r="I12" s="6"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13" s="5"/>
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
       <c r="D13" s="3"/>
       <c r="E13" s="3"/>
       <c r="F13" s="3"/>
-      <c r="G13" s="6"/>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G13" s="3"/>
+      <c r="H13" s="3"/>
+      <c r="I13" s="6"/>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14" s="5"/>
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
       <c r="D14" s="3"/>
       <c r="E14" s="3"/>
       <c r="F14" s="3"/>
-      <c r="G14" s="6"/>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G14" s="3"/>
+      <c r="H14" s="3"/>
+      <c r="I14" s="6"/>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A15" s="5"/>
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
       <c r="D15" s="3"/>
       <c r="E15" s="3"/>
       <c r="F15" s="3"/>
-      <c r="G15" s="6"/>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G15" s="3"/>
+      <c r="H15" s="3"/>
+      <c r="I15" s="6"/>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A16" s="5"/>
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
-      <c r="G16" s="6"/>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G16" s="3"/>
+      <c r="H16" s="3"/>
+      <c r="I16" s="6"/>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A17" s="5"/>
       <c r="B17" s="3"/>
       <c r="C17" s="3"/>
       <c r="D17" s="3"/>
       <c r="E17" s="3"/>
       <c r="F17" s="3"/>
-      <c r="G17" s="6"/>
-    </row>
-    <row r="18" spans="1:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="G17" s="3"/>
+      <c r="H17" s="3"/>
+      <c r="I17" s="6"/>
+    </row>
+    <row r="18" spans="1:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A18" s="7"/>
       <c r="B18" s="8"/>
       <c r="C18" s="8"/>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
-      <c r="G18" s="9"/>
+      <c r="G18" s="8"/>
+      <c r="H18" s="8"/>
+      <c r="I18" s="9"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/SMP Sprint 1 - Defect Log.xlsx
+++ b/SMP Sprint 1 - Defect Log.xlsx
@@ -8,20 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wende\OneDrive\Desktop\QA Internship - Group 1\Sprint 1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A3F3257-100D-48C0-A65E-5BF969D14D26}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A93E0F4A-C50C-4BD2-9D6C-0AC16147677B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Defect Log (Sprint1)" sheetId="2" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>Status</t>
   </si>
@@ -33,12 +32,6 @@
   </si>
   <si>
     <t>Module</t>
-  </si>
-  <si>
-    <t>Defect Severity</t>
-  </si>
-  <si>
-    <t>Defect Status</t>
   </si>
   <si>
     <t>Comments</t>
@@ -63,7 +56,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -83,13 +76,6 @@
       <family val="2"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="14"/>
       <color rgb="FF000000"/>
@@ -98,7 +84,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -107,24 +93,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFFF"/>
-        <bgColor rgb="FFFFFFFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor theme="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.39997558519241921"/>
         <bgColor theme="9"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -145,15 +119,6 @@
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -281,39 +246,24 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -535,258 +485,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <sheetPr>
-    <outlinePr summaryBelow="0" summaryRight="0"/>
-    <pageSetUpPr fitToPage="1"/>
-  </sheetPr>
-  <dimension ref="A1:W19"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:F19"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="16" customWidth="1"/>
-    <col min="2" max="2" width="20.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.42578125" customWidth="1"/>
-    <col min="4" max="4" width="18.42578125" customWidth="1"/>
-    <col min="5" max="5" width="24.7109375" customWidth="1"/>
-    <col min="6" max="6" width="22.28515625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:23" ht="15" x14ac:dyDescent="0.2">
-      <c r="A1" s="16"/>
-      <c r="B1" s="17"/>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
-      <c r="E1" s="17"/>
-      <c r="F1" s="17"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
-      <c r="J1" s="1"/>
-      <c r="K1" s="1"/>
-      <c r="L1" s="1"/>
-      <c r="M1" s="1"/>
-      <c r="N1" s="1"/>
-      <c r="O1" s="1"/>
-      <c r="P1" s="1"/>
-      <c r="Q1" s="1"/>
-      <c r="R1" s="1"/>
-      <c r="S1" s="1"/>
-      <c r="T1" s="1"/>
-      <c r="U1" s="1"/>
-      <c r="V1" s="1"/>
-      <c r="W1" s="1"/>
-    </row>
-    <row r="2" spans="1:23" ht="15" x14ac:dyDescent="0.2">
-      <c r="A2" s="10"/>
-      <c r="B2" s="11"/>
-      <c r="C2" s="11"/>
-      <c r="D2" s="11"/>
-      <c r="E2" s="11"/>
-      <c r="F2" s="11"/>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1"/>
-      <c r="I2" s="1"/>
-      <c r="J2" s="1"/>
-      <c r="K2" s="1"/>
-      <c r="L2" s="1"/>
-      <c r="M2" s="1"/>
-      <c r="N2" s="1"/>
-      <c r="O2" s="1"/>
-      <c r="P2" s="1"/>
-      <c r="Q2" s="1"/>
-      <c r="R2" s="1"/>
-      <c r="S2" s="1"/>
-      <c r="T2" s="1"/>
-      <c r="U2" s="1"/>
-      <c r="V2" s="1"/>
-      <c r="W2" s="1"/>
-    </row>
-    <row r="3" spans="1:23" ht="15" x14ac:dyDescent="0.2">
-      <c r="A3" s="10"/>
-      <c r="B3" s="11"/>
-      <c r="C3" s="11"/>
-      <c r="D3" s="11"/>
-      <c r="E3" s="11"/>
-      <c r="F3" s="11"/>
-      <c r="G3" s="1"/>
-      <c r="H3" s="1"/>
-      <c r="I3" s="1"/>
-      <c r="J3" s="1"/>
-      <c r="K3" s="1"/>
-      <c r="L3" s="1"/>
-      <c r="M3" s="1"/>
-      <c r="N3" s="1"/>
-      <c r="O3" s="1"/>
-      <c r="P3" s="1"/>
-      <c r="Q3" s="1"/>
-      <c r="R3" s="1"/>
-      <c r="S3" s="1"/>
-      <c r="T3" s="1"/>
-      <c r="U3" s="1"/>
-      <c r="V3" s="1"/>
-      <c r="W3" s="1"/>
-    </row>
-    <row r="4" spans="1:23" ht="15" x14ac:dyDescent="0.2">
-      <c r="A4" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="5"/>
-      <c r="B5" s="3"/>
-      <c r="C5" s="3"/>
-      <c r="D5" s="3"/>
-      <c r="E5" s="3"/>
-      <c r="F5" s="3"/>
-    </row>
-    <row r="6" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="5"/>
-      <c r="B6" s="3"/>
-      <c r="C6" s="3"/>
-      <c r="D6" s="3"/>
-      <c r="E6" s="3"/>
-      <c r="F6" s="3"/>
-    </row>
-    <row r="7" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="5"/>
-      <c r="B7" s="3"/>
-      <c r="C7" s="3"/>
-      <c r="D7" s="3"/>
-      <c r="E7" s="3"/>
-      <c r="F7" s="3"/>
-    </row>
-    <row r="8" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="5"/>
-      <c r="B8" s="3"/>
-      <c r="C8" s="3"/>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3"/>
-      <c r="F8" s="3"/>
-    </row>
-    <row r="9" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="5"/>
-      <c r="B9" s="3"/>
-      <c r="C9" s="3"/>
-      <c r="D9" s="3"/>
-      <c r="E9" s="3"/>
-      <c r="F9" s="3"/>
-    </row>
-    <row r="10" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="5"/>
-      <c r="B10" s="3"/>
-      <c r="C10" s="3"/>
-      <c r="D10" s="3"/>
-      <c r="E10" s="3"/>
-      <c r="F10" s="3"/>
-    </row>
-    <row r="11" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="5"/>
-      <c r="B11" s="3"/>
-      <c r="C11" s="3"/>
-      <c r="D11" s="3"/>
-      <c r="E11" s="3"/>
-      <c r="F11" s="3"/>
-    </row>
-    <row r="12" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="5"/>
-      <c r="B12" s="3"/>
-      <c r="C12" s="3"/>
-      <c r="D12" s="3"/>
-      <c r="E12" s="3"/>
-      <c r="F12" s="3"/>
-    </row>
-    <row r="13" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="5"/>
-      <c r="B13" s="3"/>
-      <c r="C13" s="3"/>
-      <c r="D13" s="3"/>
-      <c r="E13" s="3"/>
-      <c r="F13" s="3"/>
-    </row>
-    <row r="14" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="5"/>
-      <c r="B14" s="3"/>
-      <c r="C14" s="3"/>
-      <c r="D14" s="3"/>
-      <c r="E14" s="3"/>
-      <c r="F14" s="3"/>
-    </row>
-    <row r="15" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="5"/>
-      <c r="B15" s="3"/>
-      <c r="C15" s="3"/>
-      <c r="D15" s="3"/>
-      <c r="E15" s="3"/>
-      <c r="F15" s="3"/>
-    </row>
-    <row r="16" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="5"/>
-      <c r="B16" s="3"/>
-      <c r="C16" s="3"/>
-      <c r="D16" s="3"/>
-      <c r="E16" s="3"/>
-      <c r="F16" s="3"/>
-    </row>
-    <row r="17" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="5"/>
-      <c r="B17" s="3"/>
-      <c r="C17" s="3"/>
-      <c r="D17" s="3"/>
-      <c r="E17" s="3"/>
-      <c r="F17" s="3"/>
-    </row>
-    <row r="18" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="5"/>
-      <c r="B18" s="3"/>
-      <c r="C18" s="3"/>
-      <c r="D18" s="3"/>
-      <c r="E18" s="3"/>
-      <c r="F18" s="3"/>
-    </row>
-    <row r="19" spans="1:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="7"/>
-      <c r="B19" s="8"/>
-      <c r="C19" s="8"/>
-      <c r="D19" s="8"/>
-      <c r="E19" s="8"/>
-      <c r="F19" s="8"/>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:F1"/>
-  </mergeCells>
-  <printOptions horizontalCentered="1" gridLines="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
-  <pageSetup fitToHeight="0" pageOrder="overThenDown" orientation="landscape" cellComments="atEnd"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6B017F9-B116-4BAF-9318-235F4F690683}">
   <dimension ref="A1:I18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -801,204 +504,204 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="18" x14ac:dyDescent="0.25">
-      <c r="A1" s="12" t="s">
-        <v>8</v>
+      <c r="A1" s="7" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="3" spans="1:9" ht="15" x14ac:dyDescent="0.2">
-      <c r="A3" s="13" t="s">
+      <c r="A3" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="14" t="s">
+      <c r="B3" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="14" t="s">
+      <c r="C3" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="14" t="s">
+      <c r="D3" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="E3" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="F3" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="E3" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="F3" s="14" t="s">
+      <c r="G3" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="H3" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="G3" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="H3" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="I3" s="15" t="s">
-        <v>6</v>
+      <c r="I3" s="10" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A4" s="5"/>
-      <c r="B4" s="3"/>
-      <c r="C4" s="3"/>
-      <c r="D4" s="3"/>
-      <c r="E4" s="3"/>
-      <c r="F4" s="3"/>
-      <c r="G4" s="3"/>
-      <c r="H4" s="3"/>
-      <c r="I4" s="6"/>
+      <c r="A4" s="2"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
+      <c r="I4" s="3"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A5" s="5"/>
-      <c r="B5" s="3"/>
-      <c r="C5" s="3"/>
-      <c r="D5" s="3"/>
-      <c r="E5" s="3"/>
-      <c r="F5" s="3"/>
-      <c r="G5" s="3"/>
-      <c r="H5" s="3"/>
-      <c r="I5" s="6"/>
+      <c r="A5" s="2"/>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
+      <c r="I5" s="3"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A6" s="5"/>
-      <c r="B6" s="3"/>
-      <c r="C6" s="3"/>
-      <c r="D6" s="3"/>
-      <c r="E6" s="3"/>
-      <c r="F6" s="3"/>
-      <c r="G6" s="3"/>
-      <c r="H6" s="3"/>
-      <c r="I6" s="6"/>
+      <c r="A6" s="2"/>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
+      <c r="I6" s="3"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A7" s="5"/>
-      <c r="B7" s="3"/>
-      <c r="C7" s="3"/>
-      <c r="D7" s="3"/>
-      <c r="E7" s="3"/>
-      <c r="F7" s="3"/>
-      <c r="G7" s="3"/>
-      <c r="H7" s="3"/>
-      <c r="I7" s="6"/>
+      <c r="A7" s="2"/>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
+      <c r="I7" s="3"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A8" s="5"/>
-      <c r="B8" s="3"/>
-      <c r="C8" s="3"/>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3"/>
-      <c r="F8" s="3"/>
-      <c r="G8" s="3"/>
-      <c r="H8" s="3"/>
-      <c r="I8" s="6"/>
+      <c r="A8" s="2"/>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+      <c r="H8" s="1"/>
+      <c r="I8" s="3"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A9" s="5"/>
-      <c r="B9" s="3"/>
-      <c r="C9" s="3"/>
-      <c r="D9" s="3"/>
-      <c r="E9" s="3"/>
-      <c r="F9" s="3"/>
-      <c r="G9" s="3"/>
-      <c r="H9" s="3"/>
-      <c r="I9" s="6"/>
+      <c r="A9" s="2"/>
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1"/>
+      <c r="I9" s="3"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A10" s="5"/>
-      <c r="B10" s="3"/>
-      <c r="C10" s="3"/>
-      <c r="D10" s="3"/>
-      <c r="E10" s="3"/>
-      <c r="F10" s="3"/>
-      <c r="G10" s="3"/>
-      <c r="H10" s="3"/>
-      <c r="I10" s="6"/>
+      <c r="A10" s="2"/>
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1"/>
+      <c r="I10" s="3"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A11" s="5"/>
-      <c r="B11" s="3"/>
-      <c r="C11" s="3"/>
-      <c r="D11" s="3"/>
-      <c r="E11" s="3"/>
-      <c r="F11" s="3"/>
-      <c r="G11" s="3"/>
-      <c r="H11" s="3"/>
-      <c r="I11" s="6"/>
+      <c r="A11" s="2"/>
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
+      <c r="H11" s="1"/>
+      <c r="I11" s="3"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A12" s="5"/>
-      <c r="B12" s="3"/>
-      <c r="C12" s="3"/>
-      <c r="D12" s="3"/>
-      <c r="E12" s="3"/>
-      <c r="F12" s="3"/>
-      <c r="G12" s="3"/>
-      <c r="H12" s="3"/>
-      <c r="I12" s="6"/>
+      <c r="A12" s="2"/>
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1"/>
+      <c r="H12" s="1"/>
+      <c r="I12" s="3"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A13" s="5"/>
-      <c r="B13" s="3"/>
-      <c r="C13" s="3"/>
-      <c r="D13" s="3"/>
-      <c r="E13" s="3"/>
-      <c r="F13" s="3"/>
-      <c r="G13" s="3"/>
-      <c r="H13" s="3"/>
-      <c r="I13" s="6"/>
+      <c r="A13" s="2"/>
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1"/>
+      <c r="H13" s="1"/>
+      <c r="I13" s="3"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A14" s="5"/>
-      <c r="B14" s="3"/>
-      <c r="C14" s="3"/>
-      <c r="D14" s="3"/>
-      <c r="E14" s="3"/>
-      <c r="F14" s="3"/>
-      <c r="G14" s="3"/>
-      <c r="H14" s="3"/>
-      <c r="I14" s="6"/>
+      <c r="A14" s="2"/>
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1"/>
+      <c r="H14" s="1"/>
+      <c r="I14" s="3"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A15" s="5"/>
-      <c r="B15" s="3"/>
-      <c r="C15" s="3"/>
-      <c r="D15" s="3"/>
-      <c r="E15" s="3"/>
-      <c r="F15" s="3"/>
-      <c r="G15" s="3"/>
-      <c r="H15" s="3"/>
-      <c r="I15" s="6"/>
+      <c r="A15" s="2"/>
+      <c r="B15" s="1"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
+      <c r="G15" s="1"/>
+      <c r="H15" s="1"/>
+      <c r="I15" s="3"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A16" s="5"/>
-      <c r="B16" s="3"/>
-      <c r="C16" s="3"/>
-      <c r="D16" s="3"/>
-      <c r="E16" s="3"/>
-      <c r="F16" s="3"/>
-      <c r="G16" s="3"/>
-      <c r="H16" s="3"/>
-      <c r="I16" s="6"/>
+      <c r="A16" s="2"/>
+      <c r="B16" s="1"/>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1"/>
+      <c r="G16" s="1"/>
+      <c r="H16" s="1"/>
+      <c r="I16" s="3"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A17" s="5"/>
-      <c r="B17" s="3"/>
-      <c r="C17" s="3"/>
-      <c r="D17" s="3"/>
-      <c r="E17" s="3"/>
-      <c r="F17" s="3"/>
-      <c r="G17" s="3"/>
-      <c r="H17" s="3"/>
-      <c r="I17" s="6"/>
+      <c r="A17" s="2"/>
+      <c r="B17" s="1"/>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
+      <c r="E17" s="1"/>
+      <c r="F17" s="1"/>
+      <c r="G17" s="1"/>
+      <c r="H17" s="1"/>
+      <c r="I17" s="3"/>
     </row>
     <row r="18" spans="1:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="7"/>
-      <c r="B18" s="8"/>
-      <c r="C18" s="8"/>
-      <c r="D18" s="8"/>
-      <c r="E18" s="8"/>
-      <c r="F18" s="8"/>
-      <c r="G18" s="8"/>
-      <c r="H18" s="8"/>
-      <c r="I18" s="9"/>
+      <c r="A18" s="4"/>
+      <c r="B18" s="5"/>
+      <c r="C18" s="5"/>
+      <c r="D18" s="5"/>
+      <c r="E18" s="5"/>
+      <c r="F18" s="5"/>
+      <c r="G18" s="5"/>
+      <c r="H18" s="5"/>
+      <c r="I18" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
